--- a/Touchstone2/techgear_sales_data_monthly.xlsx
+++ b/Touchstone2/techgear_sales_data_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Touchstones\Touchstone 2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FA0DE8-8121-4574-B2C5-63D3EC85A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB920E85-9442-4F25-810E-EEC26195EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{E6784638-9682-49E6-82AC-8EE816A48970}"/>
   </bookViews>
@@ -896,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980CA34-7A27-4C43-9988-0E2EA96E686C}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1944,6 +1944,21 @@
         <v>6359</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Touchstone2/techgear_sales_data_monthly.xlsx
+++ b/Touchstone2/techgear_sales_data_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Touchstones\Touchstone 2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB920E85-9442-4F25-810E-EEC26195EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7465B9-3794-4511-9397-FDF055CAD6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{E6784638-9682-49E6-82AC-8EE816A48970}"/>
   </bookViews>
@@ -899,7 +899,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1950,14 +1950,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>45351</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>45382</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
